--- a/biology/Botanique/Eleocharis_multicaulis/Eleocharis_multicaulis.xlsx
+++ b/biology/Botanique/Eleocharis_multicaulis/Eleocharis_multicaulis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleocharis multicaulis est une espèce de plante des milieux inondés ou humides acides : bords de mare, landes tourbeuses, ornières. Cette espèce est protégée en Lorraine[1] et Midi-Pyrénées[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleocharis multicaulis est une espèce de plante des milieux inondés ou humides acides : bords de mare, landes tourbeuses, ornières. Cette espèce est protégée en Lorraine et Midi-Pyrénées.
 </t>
         </is>
       </c>
@@ -513,12 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Noms vernaculaires
-Français : Scirpe à nombreuses tiges
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Français : Scirpe à nombreuses tiges
 Néerlandais : Veelstengelige waterbies
-Allemand : Vielstengelige Sumpfsimse.
-Synonymes
-Clavula multiculmis Dumort.
+Allemand : Vielstengelige Sumpfsimse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eleocharis_multicaulis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eleocharis_multicaulis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Clavula multiculmis Dumort.
 Scirpus multicalamis Bubani
 Cyperus multicaulis (Sm.) E.H.L.Krause
 Scirpus multicaulis Sm.
